--- a/OriginTable/SoundsResources.xlsx
+++ b/OriginTable/SoundsResources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24960" windowHeight="12975"/>
+    <workbookView windowWidth="21585" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="SoundsResources" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ResourceId</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>Sounds\SFX_Tetris_TurnToSolid</t>
+  </si>
+  <si>
+    <t>Sounds\SFX_PickBomb</t>
+  </si>
+  <si>
+    <t>Sounds\SFX_UseBomb</t>
+  </si>
+  <si>
+    <t>Sounds\SFX_BombEffect</t>
+  </si>
+  <si>
+    <t>Sounds\BGM_Tetris</t>
   </si>
 </sst>
 </file>
@@ -1018,13 +1030,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
@@ -1086,6 +1098,38 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" ht="16.5" spans="1:2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
